--- a/data/long_bre/P24_6-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_6-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 28,94</t>
+          <t>5,0; 29,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 18,52</t>
+          <t>-8,89; 15,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 18,91</t>
+          <t>-3,89; 21,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 155,83</t>
+          <t>-17,77; 13,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 200,19</t>
+          <t>16,07; 152,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 89,67</t>
+          <t>-37,76; 151,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 105,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-47,79; 77,87</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,11</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-22,31%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,23%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -0,06</t>
+          <t>-25,53; 0,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 9,66</t>
+          <t>-20,02; 10,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 12,42</t>
+          <t>-14,07; 13,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -0,03</t>
+          <t>-13,99; 19,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 21,03</t>
+          <t>-41,13; 0,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 33,7</t>
+          <t>-32,27; 23,14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,43; 36,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; 62,18</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,39%</t>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-30,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,45%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 5,53</t>
+          <t>-12,41; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 9,85</t>
+          <t>-13,61; 12,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 6,33</t>
+          <t>-22,18; 2,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 35,63</t>
+          <t>-17,71; 14,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 44,38</t>
+          <t>-51,42; 41,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 35,23</t>
+          <t>-38,54; 57,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-60,68; 11,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 74,05</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 17,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 20,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 5,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 78,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 125,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 20,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>39,77%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55,19%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 4,86</t>
+          <t>-5,47; 18,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 19,97</t>
+          <t>-3,74; 19,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 22,56</t>
+          <t>-22,08; 5,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 11,83</t>
+          <t>-0,37; 25,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 64,69</t>
+          <t>-14,74; 85,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 84,07</t>
+          <t>-14,14; 132,6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-47,14; 25,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 203,99</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,83</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,28%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 13,81</t>
+          <t>-25,05; 4,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -1,49</t>
+          <t>-9,66; 20,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 5,7</t>
+          <t>-1,17; 23,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 82,35</t>
+          <t>-8,4; 22,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,12; -2,71</t>
+          <t>-42,72; 13,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 22,3</t>
+          <t>-20,06; 65,87</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 88,66</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-20,08; 100,64</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-14,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-15,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-37,15%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-13,42%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-33,03%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 11,42</t>
+          <t>-6,66; 15,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 13,16</t>
+          <t>-33,23; -2,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 5,02</t>
+          <t>-16,36; 7,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 47,85</t>
+          <t>-36,96; 0,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 65,81</t>
+          <t>-26,51; 103,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 22,93</t>
+          <t>-61,35; -5,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-39,14; 30,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-60,88; 0,22</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 9,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 17,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 26,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 54,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 17,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,85</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-15,45%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 13,58</t>
+          <t>-15,79; 6,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 1,89</t>
+          <t>-12,37; 12,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 15,1</t>
+          <t>-14,44; 4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 91,71</t>
+          <t>-4,82; 15,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 7,14</t>
+          <t>-35,39; 27,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 69,72</t>
+          <t>-32,73; 58,32</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-40,33; 18,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; 73,86</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>6,05</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,64%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 15,13</t>
+          <t>-10,42; 11,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 1,81</t>
+          <t>-4,48; 18,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 10,1</t>
+          <t>-13,1; 5,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 78,31</t>
+          <t>-14,98; 6,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,64; 8,78</t>
+          <t>-20,99; 33,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 48,97</t>
+          <t>-9,9; 55,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,3; 14,21</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,77; 18,68</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,11%</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>-25,11%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-6,0%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 4,29</t>
+          <t>-4,87; 12,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 15,33</t>
+          <t>-18,53; 1,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 13,29</t>
+          <t>0,32; 16,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 9,95</t>
+          <t>-11,38; 7,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 47,53</t>
+          <t>-18,39; 69,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 39,38</t>
+          <t>-47,41; 7,35</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 75,27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 28,89</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 10,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 30,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 37,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 7,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-28,08%</t>
+          <t>-15,71</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>-22,84%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-44,04%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 1,56</t>
+          <t>-3,55; 12,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 5,61</t>
+          <t>-17,79; 1,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 11,81</t>
+          <t>-4,24; 11,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 7,33</t>
+          <t>-28,36; -6,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 39,24</t>
+          <t>-11,73; 63,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 51,98</t>
+          <t>-49,43; 7,9</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-15,72; 56,47</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-64,03; -20,93</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>17,29</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>51,51%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 15,44</t>
+          <t>-12,57; 5,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 18,56</t>
+          <t>-5,06; 14,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,25; 20,86</t>
+          <t>-4,87; 12,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 43,13</t>
+          <t>7,33; 27,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 55,15</t>
+          <t>-24,18; 14,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>3,3; 69,72</t>
+          <t>-11,88; 45,88</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; 35,68</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 97,03</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-14,49</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-21,53%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,14%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 16,49</t>
+          <t>-9,85; 6,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 6,0</t>
+          <t>-7,62; 10,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -5,9</t>
+          <t>-17,29; 0,37</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 78,54</t>
+          <t>-11,29; 8,31</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 17,89</t>
+          <t>-31,5; 30,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-54,49; -15,61</t>
+          <t>-19,44; 39,45</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-40,54; 1,04</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-30,61; 32,97</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 6,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-57,9; 41,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 52,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 34,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>-14,39%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-14,42%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 14,37</t>
+          <t>-21,71; -0,14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 23,56</t>
+          <t>-11,71; 6,01</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 25,47</t>
+          <t>-6,8; 11,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 32,78</t>
+          <t>-16,17; 7,01</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 69,32</t>
+          <t>-57,65; 0,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,25; 81,13</t>
+          <t>-45,96; 40,87</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 48,62</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; 27,07</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-24,75%</t>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 14,12</t>
+          <t>-9,62; 13,71</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 7,2</t>
+          <t>-4,17; 18,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 3,11</t>
+          <t>2,25; 21,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 70,05</t>
+          <t>-6,12; 21,39</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 25,53</t>
+          <t>-19,91; 36,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 10,92</t>
+          <t>-9,42; 53,39</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 71,45</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-15,3; 75,38</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-14,51</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-10,66%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-38,21%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-10,5%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,5</t>
+          <t>-2,44; 17,98</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,38</t>
+          <t>-15,72; 7,22</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,63</t>
+          <t>-23,2; -4,85</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 24,95</t>
+          <t>-14,42; 9,04</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 26,87</t>
+          <t>-8,07; 86,54</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 13,91</t>
+          <t>-33,96; 21,76</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-54,81; -14,59</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-36,9; 36,85</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>0,46; 10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>0,59; 10,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>1,08; 27,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>1,41; 27,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>-11,0%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-11,26%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,35</t>
+          <t>-22,55; 2,26</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -1,31</t>
+          <t>-12,06; 7,55</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -0,87</t>
+          <t>-14,42; 7,95</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 29,37</t>
+          <t>-6,87; 17,59</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-29,56; -3,97</t>
+          <t>-60,94; 13,15</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -2,71</t>
+          <t>-46,93; 51,01</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-41,21; 37,3</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-30,63; 144,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 15,64</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 21,49</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 22,07</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 16,69</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-16,15; 38,67</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-11,94; 60,23</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 69,34</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; 39,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-7,85</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-6,27</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>-23,5%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-19,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 13,66</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-20,35; 7,46</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-18,52; 3,79</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-20,91; 6,65</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-23,16; 63,89</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-47,71; 26,92</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-46,19; 13,92</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-51,65; 30,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 4,3</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 4,69</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 3,93</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 4,5</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 16,45</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-17,01; 22,06</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; 15,47</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-19,57; 19,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-5,53%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 2,67</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 10,3</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 10,44</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 12,01</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 6,11</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 26,54</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 28,4</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 35,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>-16,3%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-15,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,8</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; -0,24</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; -1,07</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,45</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 32,63</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-27,48; -0,77</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-27,45; -3,75</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-31,64; -0,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
